--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH2\Desktop\JavaScript\167-Adv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH2\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3493BB4-5A1D-43D0-ADFD-A97A16A91815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF9B9C-6690-4585-A79B-B2CE30D42877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1235,9 @@
       <c r="I9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1275,7 +1277,9 @@
       <c r="I10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -1315,7 +1319,9 @@
       <c r="I11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1355,7 +1361,9 @@
       <c r="I12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1395,7 +1403,9 @@
       <c r="I13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -1435,7 +1445,9 @@
       <c r="I14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -1475,7 +1487,9 @@
       <c r="I15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -1515,7 +1529,9 @@
       <c r="I16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -1555,7 +1571,9 @@
       <c r="I17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -1595,7 +1613,9 @@
       <c r="I18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -1635,7 +1655,9 @@
       <c r="I19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1675,7 +1697,9 @@
       <c r="I20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1715,7 +1739,9 @@
       <c r="I21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -1755,7 +1781,9 @@
       <c r="I22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1795,7 +1823,9 @@
       <c r="I23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1835,7 +1865,9 @@
       <c r="I24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1899,6 +1931,9 @@
       <c r="I28" t="s">
         <v>51</v>
       </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -1917,6 +1952,9 @@
         <v>51</v>
       </c>
       <c r="I29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
         <v>51</v>
       </c>
     </row>

--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH2\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF9B9C-6690-4585-A79B-B2CE30D42877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C7A21-F5A9-4943-A008-B17762BC9A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -618,18 +618,6 @@
     <xf numFmtId="49" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -642,7 +630,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,130 +987,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,24 +1126,24 @@
       <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1238,7 +1238,9 @@
       <c r="J9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="7"/>
+      <c r="K9" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
@@ -1280,7 +1282,9 @@
       <c r="J10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1322,7 +1326,9 @@
       <c r="J11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1364,7 +1370,9 @@
       <c r="J12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1406,7 +1414,9 @@
       <c r="J13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1448,7 +1458,9 @@
       <c r="J14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1490,7 +1502,9 @@
       <c r="J15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1532,7 +1546,9 @@
       <c r="J16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1574,7 +1590,9 @@
       <c r="J17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1616,7 +1634,9 @@
       <c r="J18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1658,7 +1678,9 @@
       <c r="J19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1700,7 +1722,9 @@
       <c r="J20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1742,7 +1766,9 @@
       <c r="J21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1784,7 +1810,9 @@
       <c r="J22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1826,7 +1854,9 @@
       <c r="J23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1868,7 +1898,9 @@
       <c r="J24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1880,36 +1912,36 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
     </row>
     <row r="26" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -1934,6 +1966,9 @@
       <c r="J28" t="s">
         <v>51</v>
       </c>
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -1957,20 +1992,23 @@
       <c r="J29" t="s">
         <v>51</v>
       </c>
+      <c r="K29" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH2\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C7A21-F5A9-4943-A008-B17762BC9A15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0003391-AF2F-4405-BA4E-E2A0E8428DAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -618,6 +618,18 @@
     <xf numFmtId="49" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -630,19 +642,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,130 +987,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,24 +1126,24 @@
       <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1241,7 +1241,9 @@
       <c r="K9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1285,7 +1287,9 @@
       <c r="K10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1329,7 +1333,9 @@
       <c r="K11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1373,7 +1379,9 @@
       <c r="K12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1417,7 +1425,9 @@
       <c r="K13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1461,7 +1471,9 @@
       <c r="K14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1505,7 +1517,9 @@
       <c r="K15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1549,7 +1563,9 @@
       <c r="K16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1593,7 +1609,9 @@
       <c r="K17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1637,7 +1655,9 @@
       <c r="K18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1681,7 +1701,9 @@
       <c r="K19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1725,7 +1747,9 @@
       <c r="K20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1769,7 +1793,9 @@
       <c r="K21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1813,7 +1839,9 @@
       <c r="K22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1857,7 +1885,9 @@
       <c r="K23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1901,7 +1931,9 @@
       <c r="K24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1912,36 +1944,36 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -1969,6 +2001,9 @@
       <c r="K28" t="s">
         <v>51</v>
       </c>
+      <c r="L28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -1995,20 +2030,23 @@
       <c r="K29" t="s">
         <v>51</v>
       </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH2\Desktop\BackEnd-AdvComPro67\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH02\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0003391-AF2F-4405-BA4E-E2A0E8428DAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA28C0-CB2A-43A2-B73D-AB0F314E5A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -618,18 +618,6 @@
     <xf numFmtId="49" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -642,7 +630,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,130 +987,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,24 +1126,24 @@
       <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1244,7 +1244,9 @@
       <c r="L9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1290,7 +1292,9 @@
       <c r="L10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1336,7 +1340,9 @@
       <c r="L11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1382,7 +1388,9 @@
       <c r="L12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1428,7 +1436,9 @@
       <c r="L13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1474,7 +1484,9 @@
       <c r="L14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1520,7 +1532,9 @@
       <c r="L15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1566,7 +1580,9 @@
       <c r="L16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1612,7 +1628,9 @@
       <c r="L17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1658,7 +1676,9 @@
       <c r="L18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1704,7 +1724,9 @@
       <c r="L19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1750,7 +1772,9 @@
       <c r="L20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1796,7 +1820,9 @@
       <c r="L21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1842,7 +1868,9 @@
       <c r="L22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1888,7 +1916,9 @@
       <c r="L23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -1934,7 +1964,9 @@
       <c r="L24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1944,36 +1976,36 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
     </row>
     <row r="26" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -2004,6 +2036,9 @@
       <c r="L28" t="s">
         <v>51</v>
       </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -2033,20 +2068,23 @@
       <c r="L29" t="s">
         <v>51</v>
       </c>
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH02\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AA28C0-CB2A-43A2-B73D-AB0F314E5A23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4BD35-FCAD-4588-B0C0-170091C00161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,6 +618,18 @@
     <xf numFmtId="49" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -630,19 +642,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -962,7 +962,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,130 +987,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,24 +1126,24 @@
       <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1976,36 +1976,36 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -2069,22 +2069,22 @@
         <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH02\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D4BD35-FCAD-4588-B0C0-170091C00161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D4DEF-4F95-4310-ADAB-77E7F2B61F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -618,18 +618,6 @@
     <xf numFmtId="49" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -642,7 +630,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,130 +987,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,24 +1126,24 @@
       <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1247,7 +1247,9 @@
       <c r="M9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1295,7 +1297,9 @@
       <c r="M10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -1343,7 +1347,9 @@
       <c r="M11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1391,7 +1397,9 @@
       <c r="M12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1439,7 +1447,9 @@
       <c r="M13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1487,7 +1497,9 @@
       <c r="M14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1535,7 +1547,9 @@
       <c r="M15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1583,7 +1597,9 @@
       <c r="M16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1631,7 +1647,9 @@
       <c r="M17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1679,7 +1697,9 @@
       <c r="M18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1727,7 +1747,9 @@
       <c r="M19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -1775,7 +1797,9 @@
       <c r="M20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -1823,7 +1847,9 @@
       <c r="M21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -1871,7 +1897,9 @@
       <c r="M22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1919,7 +1947,9 @@
       <c r="M23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -1967,7 +1997,9 @@
       <c r="M24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -1976,36 +2008,36 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
     </row>
     <row r="26" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -2039,6 +2071,9 @@
       <c r="M28" t="s">
         <v>55</v>
       </c>
+      <c r="N28" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -2071,20 +2106,23 @@
       <c r="M29" t="s">
         <v>53</v>
       </c>
+      <c r="N29" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH02\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905D4DEF-4F95-4310-ADAB-77E7F2B61F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F28D65D-4E83-4782-8B32-4706E9140581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1250,9 @@
       <c r="N9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -1300,7 +1302,9 @@
       <c r="N10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1350,7 +1354,9 @@
       <c r="N11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -1400,7 +1406,9 @@
       <c r="N12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="7"/>
+      <c r="O12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -1450,7 +1458,9 @@
       <c r="N13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1500,7 +1510,9 @@
       <c r="N14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="7"/>
+      <c r="O14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -1550,7 +1562,9 @@
       <c r="N15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="7"/>
+      <c r="O15" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1600,7 +1614,9 @@
       <c r="N16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O16" s="7"/>
+      <c r="O16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -1650,7 +1666,9 @@
       <c r="N17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="7"/>
+      <c r="O17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -1700,7 +1718,9 @@
       <c r="N18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="7"/>
+      <c r="O18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -1750,7 +1770,9 @@
       <c r="N19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="7"/>
+      <c r="O19" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -1800,7 +1822,9 @@
       <c r="N20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O20" s="7"/>
+      <c r="O20" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1850,7 +1874,9 @@
       <c r="N21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O21" s="7"/>
+      <c r="O21" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -1900,7 +1926,9 @@
       <c r="N22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="7"/>
+      <c r="O22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -1950,7 +1978,9 @@
       <c r="N23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="7"/>
+      <c r="O23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -2000,7 +2030,9 @@
       <c r="N24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -2074,6 +2106,9 @@
       <c r="N28" t="s">
         <v>51</v>
       </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -2108,6 +2143,9 @@
       </c>
       <c r="N29" t="s">
         <v>51</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/AdvComPro-Sec01.xlsx
+++ b/AdvComPro-Sec01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH02\Desktop\BackEnd-AdvComPro67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F28D65D-4E83-4782-8B32-4706E9140581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3790C167-3E8F-4D18-9A6A-0FAC909DE95B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="56">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -618,6 +618,18 @@
     <xf numFmtId="49" fontId="2" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -630,19 +642,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -962,7 +962,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,130 +987,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1126,24 +1126,24 @@
       <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1253,7 +1253,9 @@
       <c r="O9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="7"/>
+      <c r="P9" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -1305,7 +1307,9 @@
       <c r="O10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="7"/>
+      <c r="P10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
@@ -1357,7 +1361,9 @@
       <c r="O11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -1409,7 +1415,9 @@
       <c r="O12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
@@ -1461,7 +1469,9 @@
       <c r="O13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
@@ -1513,7 +1523,9 @@
       <c r="O14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
@@ -1565,7 +1577,9 @@
       <c r="O15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -1617,7 +1631,9 @@
       <c r="O16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -1669,7 +1685,9 @@
       <c r="O17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="7"/>
+      <c r="P17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -1721,7 +1739,9 @@
       <c r="O18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="P18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
@@ -1773,7 +1793,9 @@
       <c r="O19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
@@ -1825,7 +1847,9 @@
       <c r="O20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="7"/>
+      <c r="P20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -1877,7 +1901,9 @@
       <c r="O21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="7"/>
+      <c r="P21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
@@ -1929,7 +1955,9 @@
       <c r="O22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="P22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
@@ -1981,7 +2009,9 @@
       <c r="O23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="7"/>
+      <c r="P23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
@@ -2033,43 +2063,45 @@
       <c r="O24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -2109,6 +2141,9 @@
       <c r="O28" t="s">
         <v>53</v>
       </c>
+      <c r="P28" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -2147,20 +2182,23 @@
       <c r="O29" t="s">
         <v>53</v>
       </c>
+      <c r="P29" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E7:T7"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="I5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="I5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
